--- a/table 2 Zhang et al 2011.xlsx
+++ b/table 2 Zhang et al 2011.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcChoisy/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcChoisy/GitHub/choisy/tb_prophylaxis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C03F0B2-56FD-124D-8699-1BA0A881850F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86357AD5-FA13-7A4B-89B0-2DE1249C600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11040" yWindow="6740" windowWidth="20000" windowHeight="12540" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
   </bookViews>
@@ -38,18 +38,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
-    <t>treatment_group</t>
-  </si>
-  <si>
     <t>INH</t>
   </si>
   <si>
-    <t>treatment_duration</t>
-  </si>
-  <si>
-    <t>nb_positive</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -75,6 +66,15 @@
   </si>
   <si>
     <t>TMC+RPT+PZA</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>group</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,21 +468,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -538,7 +538,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -566,7 +566,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -608,7 +608,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -622,7 +622,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -650,7 +650,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -678,7 +678,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>0.5</v>
@@ -706,7 +706,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>0.5</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20">
         <v>1</v>

--- a/table 2 Zhang et al 2011.xlsx
+++ b/table 2 Zhang et al 2011.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarcChoisy/GitHub/choisy/tb_prophylaxis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86357AD5-FA13-7A4B-89B0-2DE1249C600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FD1B8B-9C38-5F48-A876-7678CD542545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="6740" windowWidth="20000" windowHeight="12540" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
+    <workbookView xWindow="3620" yWindow="8060" windowWidth="20000" windowHeight="12340" xr2:uid="{52071268-AD5C-CE40-B2AD-CCF5A62ECFD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>INH</t>
   </si>
@@ -47,27 +47,9 @@
     <t>RIF+INH</t>
   </si>
   <si>
-    <t>RPT15+INH50</t>
-  </si>
-  <si>
-    <t>RPT</t>
-  </si>
-  <si>
     <t>RPT+INH</t>
   </si>
   <si>
-    <t>TMC</t>
-  </si>
-  <si>
-    <t>TMC12.5+RPT</t>
-  </si>
-  <si>
-    <t>TMC+RPT</t>
-  </si>
-  <si>
-    <t>TMC+RPT+PZA</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -75,6 +57,9 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>RIF</t>
   </si>
 </sst>
 </file>
@@ -454,33 +439,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1687C282-D1D7-FB46-8C6E-67CCDB054744}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -508,9 +493,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -522,9 +507,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -536,9 +521,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -550,23 +535,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -575,26 +560,26 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D9">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -606,145 +591,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>0.5</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19">
-        <v>0.5</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
